--- a/User Management/RoleGrouping.xlsx
+++ b/User Management/RoleGrouping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Table Name - RoleGrouping</t>
   </si>
@@ -77,13 +77,28 @@
   </si>
   <si>
     <t>datetime2</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Take RoleGroupName as String.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +110,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -134,14 +155,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,6 +166,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +482,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,138 +491,148 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/User Management/RoleGrouping.xlsx
+++ b/User Management/RoleGrouping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Table Name - RoleGrouping</t>
   </si>
@@ -92,13 +92,16 @@
   </si>
   <si>
     <t>Take RoleGroupName as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +122,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -151,11 +162,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,14 +214,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,32 +552,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -558,7 +615,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -576,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -594,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -612,7 +669,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -630,14 +687,25 @@
         <v>18</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/User Management/RoleGrouping.xlsx
+++ b/User Management/RoleGrouping.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name - RoleGrouping</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -95,6 +92,10 @@
   </si>
   <si>
     <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defination : User Role’s की Grouping की जाती है|
+</t>
   </si>
 </sst>
 </file>
@@ -539,7 +540,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +564,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -581,22 +582,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,19 +605,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,17 +625,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -642,17 +643,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,17 +661,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,22 +679,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
